--- a/Code/Results/Cases/Case_7_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_2/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.642002945599245</v>
+        <v>2.642002945599359</v>
       </c>
       <c r="C2">
-        <v>0.3953963257252155</v>
+        <v>0.3953963257254998</v>
       </c>
       <c r="D2">
-        <v>0.1610027406357659</v>
+        <v>0.1610027406357517</v>
       </c>
       <c r="E2">
-        <v>0.02168518733023905</v>
+        <v>0.02168518733024349</v>
       </c>
       <c r="F2">
-        <v>7.428701148049868</v>
+        <v>7.428701148049839</v>
       </c>
       <c r="G2">
-        <v>0.0008634352502634202</v>
+        <v>0.0008634352501659362</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1204192478579422</v>
+        <v>0.1204192478577646</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.09201206591632172</v>
+        <v>0.09201206591621514</v>
       </c>
       <c r="M2">
         <v>0.3992521550489982</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.344451557896548</v>
+        <v>2.344451557896889</v>
       </c>
       <c r="C3">
-        <v>0.3378322454806266</v>
+        <v>0.3378322454807972</v>
       </c>
       <c r="D3">
-        <v>0.1405749848143216</v>
+        <v>0.1405749848142079</v>
       </c>
       <c r="E3">
-        <v>0.02058848102580058</v>
+        <v>0.02058848102578636</v>
       </c>
       <c r="F3">
-        <v>6.777027380078891</v>
+        <v>6.777027380078835</v>
       </c>
       <c r="G3">
-        <v>0.0008749829601199088</v>
+        <v>0.0008749829601937033</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1159450659323724</v>
+        <v>0.1159450659322978</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08770724203536417</v>
+        <v>0.08770724203520786</v>
       </c>
       <c r="M3">
-        <v>0.3583011582530418</v>
+        <v>0.358301158253056</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.168358095765711</v>
+        <v>2.168358095765598</v>
       </c>
       <c r="C4">
-        <v>0.303484192963424</v>
+        <v>0.3034841929633387</v>
       </c>
       <c r="D4">
-        <v>0.1282925410102678</v>
+        <v>0.128292541010282</v>
       </c>
       <c r="E4">
-        <v>0.01992574043478612</v>
+        <v>0.01992574043483319</v>
       </c>
       <c r="F4">
-        <v>6.38736346511817</v>
+        <v>6.387363465118199</v>
       </c>
       <c r="G4">
-        <v>0.0008822339506493498</v>
+        <v>0.0008822339505527696</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1132545472736766</v>
+        <v>0.1132545472736375</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.08530376695997433</v>
+        <v>0.08530376696002406</v>
       </c>
       <c r="M4">
-        <v>0.3341796185332839</v>
+        <v>0.3341796185333052</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.098082937703168</v>
+        <v>2.098082937703282</v>
       </c>
       <c r="C5">
-        <v>0.2897022208490512</v>
+        <v>0.2897022208491933</v>
       </c>
       <c r="D5">
-        <v>0.1233421613450503</v>
+        <v>0.1233421613446666</v>
       </c>
       <c r="E5">
-        <v>0.01965766694922433</v>
+        <v>0.01965766694927229</v>
       </c>
       <c r="F5">
-        <v>6.230866189540905</v>
+        <v>6.230866189540933</v>
       </c>
       <c r="G5">
-        <v>0.0008852322068793023</v>
+        <v>0.0008852322068120586</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1121695110826941</v>
+        <v>0.1121695110826231</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08438067759318812</v>
+        <v>0.08438067759311707</v>
       </c>
       <c r="M5">
-        <v>0.3245816795491763</v>
+        <v>0.3245816795491834</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.08649863792715</v>
+        <v>2.086498637927036</v>
       </c>
       <c r="C6">
-        <v>0.2874257630892316</v>
+        <v>0.2874257630888906</v>
       </c>
       <c r="D6">
-        <v>0.1225231739275898</v>
+        <v>0.1225231739271919</v>
       </c>
       <c r="E6">
-        <v>0.01961325588848695</v>
+        <v>0.01961325588850293</v>
       </c>
       <c r="F6">
         <v>6.205009222740586</v>
       </c>
       <c r="G6">
-        <v>0.0008857327704822748</v>
+        <v>0.0008857327703943374</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1119899499761949</v>
+        <v>0.1119899499763228</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08423069536014083</v>
+        <v>0.08423069536006977</v>
       </c>
       <c r="M6">
-        <v>0.3230012565117235</v>
+        <v>0.3230012565117306</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.167404550244328</v>
+        <v>2.167404550244555</v>
       </c>
       <c r="C7">
-        <v>0.3032974975076286</v>
+        <v>0.3032974975074296</v>
       </c>
       <c r="D7">
-        <v>0.1282255698161379</v>
+        <v>0.1282255698158821</v>
       </c>
       <c r="E7">
-        <v>0.01992211784985631</v>
+        <v>0.01992211784985454</v>
       </c>
       <c r="F7">
         <v>6.385244022914605</v>
       </c>
       <c r="G7">
-        <v>0.0008822742064441229</v>
+        <v>0.0008822742064435349</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1132398716372904</v>
+        <v>0.1132398716374929</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0852910946036971</v>
+        <v>0.08529109460371842</v>
       </c>
       <c r="M7">
-        <v>0.3340492704868012</v>
+        <v>0.3340492704868225</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.537924372733016</v>
+        <v>2.537924372733073</v>
       </c>
       <c r="C8">
-        <v>0.3753188234747427</v>
+        <v>0.3753188234743732</v>
       </c>
       <c r="D8">
-        <v>0.1538984856963737</v>
+        <v>0.1538984856963026</v>
       </c>
       <c r="E8">
         <v>0.02130440171011561</v>
       </c>
       <c r="F8">
-        <v>7.201617452917475</v>
+        <v>7.201617452917532</v>
       </c>
       <c r="G8">
-        <v>0.0008673854715352568</v>
+        <v>0.0008673854715218051</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1188629679832758</v>
+        <v>0.1188629679834499</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.09047551093244977</v>
+        <v>0.0904755109324995</v>
       </c>
       <c r="M8">
         <v>0.3849039080003109</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.325992412965888</v>
+        <v>3.325992412965434</v>
       </c>
       <c r="C9">
-        <v>0.5262918606972562</v>
+        <v>0.5262918606976541</v>
       </c>
       <c r="D9">
-        <v>0.2068519988054192</v>
+        <v>0.2068519988054334</v>
       </c>
       <c r="E9">
-        <v>0.02413476369574052</v>
+        <v>0.02413476369567658</v>
       </c>
       <c r="F9">
         <v>8.902846214236746</v>
       </c>
       <c r="G9">
-        <v>0.0008393093415154414</v>
+        <v>0.0008393093415177961</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1304868265914116</v>
+        <v>0.1304868265915005</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1027468014663029</v>
+        <v>0.1027468014662674</v>
       </c>
       <c r="M9">
         <v>0.4940478804599024</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.957190659943649</v>
+        <v>3.957190659943478</v>
       </c>
       <c r="C10">
-        <v>0.6461383745649414</v>
+        <v>0.6461383745639182</v>
       </c>
       <c r="D10">
-        <v>0.2482235951779046</v>
+        <v>0.2482235951780183</v>
       </c>
       <c r="E10">
-        <v>0.02634530481020914</v>
+        <v>0.02634530481015585</v>
       </c>
       <c r="F10">
-        <v>10.24170995456831</v>
+        <v>10.24170995456845</v>
       </c>
       <c r="G10">
-        <v>0.0008191176450707966</v>
+        <v>0.0008191176449315869</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1396298883072866</v>
+        <v>0.1396298883073435</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1133750676650891</v>
+        <v>0.1133750676650322</v>
       </c>
       <c r="M10">
-        <v>0.5820944929434049</v>
+        <v>0.5820944929433125</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.259681587269142</v>
+        <v>4.259681587268972</v>
       </c>
       <c r="C11">
         <v>0.7034182732951706</v>
       </c>
       <c r="D11">
-        <v>0.2678167474789177</v>
+        <v>0.2678167474787045</v>
       </c>
       <c r="E11">
-        <v>0.02739556639174801</v>
+        <v>0.02739556639175511</v>
       </c>
       <c r="F11">
-        <v>10.8776064827324</v>
+        <v>10.87760648273246</v>
       </c>
       <c r="G11">
-        <v>0.000809960112752871</v>
+        <v>0.0008099601127553188</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1439853980906314</v>
+        <v>0.1439853980906705</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1186501392902528</v>
+        <v>0.1186501392905228</v>
       </c>
       <c r="M11">
-        <v>0.6244317388913245</v>
+        <v>0.6244317388913387</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.376841091719371</v>
+        <v>4.376841091719143</v>
       </c>
       <c r="C12">
-        <v>0.725589489185694</v>
+        <v>0.7255894891856087</v>
       </c>
       <c r="D12">
-        <v>0.2753711463241046</v>
+        <v>0.2753711463238773</v>
       </c>
       <c r="E12">
-        <v>0.02780136950024126</v>
+        <v>0.02780136950035583</v>
       </c>
       <c r="F12">
-        <v>11.12301664071725</v>
+        <v>11.12301664071731</v>
       </c>
       <c r="G12">
-        <v>0.0008064897259427178</v>
+        <v>0.0008064897259537058</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1456695651046971</v>
+        <v>0.1456695651046687</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1207200907395958</v>
+        <v>0.1207200907395745</v>
       </c>
       <c r="M12">
-        <v>0.640850624709131</v>
+        <v>0.6408506247091168</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.35148526780614</v>
+        <v>4.351485267806027</v>
       </c>
       <c r="C13">
-        <v>0.7207916508183132</v>
+        <v>0.7207916508174321</v>
       </c>
       <c r="D13">
-        <v>0.2737377489670365</v>
+        <v>0.2737377489666102</v>
       </c>
       <c r="E13">
-        <v>0.02771358255941259</v>
+        <v>0.02771358255942413</v>
       </c>
       <c r="F13">
-        <v>11.06994479769043</v>
+        <v>11.06994479769054</v>
       </c>
       <c r="G13">
-        <v>0.0008072373705188125</v>
+        <v>0.0008072373703982909</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1453051824093912</v>
+        <v>0.1453051824092064</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1202709074198154</v>
+        <v>0.1202709074198793</v>
       </c>
       <c r="M13">
-        <v>0.6372962865798257</v>
+        <v>0.6372962865798328</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.269265430504447</v>
+        <v>4.269265430504504</v>
       </c>
       <c r="C14">
-        <v>0.7052321477370072</v>
+        <v>0.7052321477364387</v>
       </c>
       <c r="D14">
-        <v>0.2684353980958747</v>
+        <v>0.2684353980960026</v>
       </c>
       <c r="E14">
-        <v>0.02742877916436903</v>
+        <v>0.02742877916432374</v>
       </c>
       <c r="F14">
-        <v>10.89769937405384</v>
+        <v>10.89769937405407</v>
       </c>
       <c r="G14">
-        <v>0.000809674696383913</v>
+        <v>0.0008096746963601542</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1441232153696212</v>
+        <v>0.1441232153694685</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1188189266104942</v>
+        <v>0.1188189266104516</v>
       </c>
       <c r="M14">
         <v>0.6257744101566587</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.219256900105506</v>
+        <v>4.219256900105904</v>
       </c>
       <c r="C15">
-        <v>0.6957668271888906</v>
+        <v>0.6957668271893738</v>
       </c>
       <c r="D15">
-        <v>0.2652058975239555</v>
+        <v>0.2652058975239413</v>
       </c>
       <c r="E15">
-        <v>0.02725543769562133</v>
+        <v>0.02725543769555827</v>
       </c>
       <c r="F15">
-        <v>10.79281889217009</v>
+        <v>10.79281889217015</v>
       </c>
       <c r="G15">
-        <v>0.0008111670711834248</v>
+        <v>0.0008111670710613217</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1434039786487524</v>
+        <v>0.1434039786487382</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1179392720660459</v>
+        <v>0.1179392720661596</v>
       </c>
       <c r="M15">
-        <v>0.6187691902280577</v>
+        <v>0.6187691902280363</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.937764163496411</v>
+        <v>3.937764163496638</v>
       </c>
       <c r="C16">
-        <v>0.6424573592793763</v>
+        <v>0.6424573592802858</v>
       </c>
       <c r="D16">
-        <v>0.2469606299492426</v>
+        <v>0.2469606299489584</v>
       </c>
       <c r="E16">
-        <v>0.02627770212003711</v>
+        <v>0.02627770212007974</v>
       </c>
       <c r="F16">
-        <v>10.2007540205029</v>
+        <v>10.20075402050284</v>
       </c>
       <c r="G16">
-        <v>0.0008197161292001607</v>
+        <v>0.0008197161290792113</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1393497335656591</v>
+        <v>0.1393497335656981</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1130399292723396</v>
+        <v>0.1130399292722757</v>
       </c>
       <c r="M16">
-        <v>0.5793783688070562</v>
+        <v>0.5793783688070491</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.769276897449004</v>
+        <v>3.769276897449231</v>
       </c>
       <c r="C17">
-        <v>0.6105157592632224</v>
+        <v>0.6105157592637056</v>
       </c>
       <c r="D17">
-        <v>0.2359813980500576</v>
+        <v>0.2359813980504697</v>
       </c>
       <c r="E17">
-        <v>0.02569042539371313</v>
+        <v>0.02569042539375666</v>
       </c>
       <c r="F17">
-        <v>9.844911390791992</v>
+        <v>9.844911390792078</v>
       </c>
       <c r="G17">
-        <v>0.0008249634401439776</v>
+        <v>0.000824963440138049</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1369172033698831</v>
+        <v>0.1369172033699222</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1101530792314875</v>
+        <v>0.1101530792314307</v>
       </c>
       <c r="M17">
-        <v>0.5558367883053563</v>
+        <v>0.555836788305335</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.67378486863015</v>
+        <v>3.673784868630207</v>
       </c>
       <c r="C18">
-        <v>0.5923978899707265</v>
+        <v>0.5923978899706981</v>
       </c>
       <c r="D18">
-        <v>0.2297375580574936</v>
+        <v>0.229737558057451</v>
       </c>
       <c r="E18">
-        <v>0.02535672788165133</v>
+        <v>0.02535672788181387</v>
       </c>
       <c r="F18">
         <v>9.642714881491258</v>
       </c>
       <c r="G18">
-        <v>0.0008279846240467933</v>
+        <v>0.0008279846239256481</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.135536094616775</v>
+        <v>0.1355360946167181</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.108533446472471</v>
+        <v>0.1085334464726486</v>
       </c>
       <c r="M18">
-        <v>0.5425072911749709</v>
+        <v>0.5425072911749851</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.641685133988915</v>
+        <v>3.641685133989199</v>
       </c>
       <c r="C19">
-        <v>0.5863048253673071</v>
+        <v>0.5863048253668808</v>
       </c>
       <c r="D19">
-        <v>0.2276350572612529</v>
+        <v>0.2276350572610681</v>
       </c>
       <c r="E19">
-        <v>0.02524440006350659</v>
+        <v>0.02524440006358031</v>
       </c>
       <c r="F19">
         <v>9.574658797273884</v>
       </c>
       <c r="G19">
-        <v>0.0008290082563155566</v>
+        <v>0.0008290082562072261</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1350713868071338</v>
+        <v>0.1350713868070841</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1079918233562367</v>
+        <v>0.1079918233560733</v>
       </c>
       <c r="M19">
         <v>0.5380287788017526</v>
@@ -1270,19 +1270,19 @@
         <v>3.787063251257621</v>
       </c>
       <c r="C20">
-        <v>0.6138891418474088</v>
+        <v>0.6138891418478067</v>
       </c>
       <c r="D20">
-        <v>0.2371426357412929</v>
+        <v>0.2371426357414492</v>
       </c>
       <c r="E20">
-        <v>0.02575250777944849</v>
+        <v>0.02575250777941118</v>
       </c>
       <c r="F20">
-        <v>9.882530280799728</v>
+        <v>9.882530280799841</v>
       </c>
       <c r="G20">
-        <v>0.0008244045817359534</v>
+        <v>0.0008244045817171005</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1371742413749359</v>
+        <v>0.1371742413746269</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1104561051068771</v>
+        <v>0.1104561051071329</v>
       </c>
       <c r="M20">
-        <v>0.5583206027221834</v>
+        <v>0.5583206027221976</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.293340895116671</v>
+        <v>4.293340895116955</v>
       </c>
       <c r="C21">
-        <v>0.7097885659682674</v>
+        <v>0.7097885659683243</v>
       </c>
       <c r="D21">
-        <v>0.2699889561701951</v>
+        <v>0.2699889561697972</v>
       </c>
       <c r="E21">
-        <v>0.02751219829481943</v>
+        <v>0.02751219829484786</v>
       </c>
       <c r="F21">
         <v>10.94816029351614</v>
       </c>
       <c r="G21">
-        <v>0.0008089589246374153</v>
+        <v>0.0008089589246481573</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1444693838612494</v>
+        <v>0.144469383861253</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1192433631759542</v>
+        <v>0.119243363176075</v>
       </c>
       <c r="M21">
-        <v>0.6291476542755774</v>
+        <v>0.629147654275549</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.63969510055756</v>
+        <v>4.639695100557674</v>
       </c>
       <c r="C22">
-        <v>0.7753161296716939</v>
+        <v>0.7753161296721203</v>
       </c>
       <c r="D22">
-        <v>0.2922564080663506</v>
+        <v>0.2922564080659953</v>
       </c>
       <c r="E22">
-        <v>0.02871044963345426</v>
+        <v>0.02871044963348179</v>
       </c>
       <c r="F22">
-        <v>11.67192887989518</v>
+        <v>11.67192887989529</v>
       </c>
       <c r="G22">
-        <v>0.0007988450251975355</v>
+        <v>0.0007988450254373289</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1494441835211049</v>
+        <v>0.1494441835212648</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1254137949896332</v>
+        <v>0.1254137949897967</v>
       </c>
       <c r="M22">
-        <v>0.6777261491884374</v>
+        <v>0.6777261491884161</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.453270145959436</v>
+        <v>4.453270145959266</v>
       </c>
       <c r="C23">
-        <v>0.7400500730273336</v>
+        <v>0.7400500730282999</v>
       </c>
       <c r="D23">
-        <v>0.2802896303308273</v>
+        <v>0.2802896303310689</v>
       </c>
       <c r="E23">
-        <v>0.02806587012242989</v>
+        <v>0.02806587012242634</v>
       </c>
       <c r="F23">
         <v>11.28285715330406</v>
       </c>
       <c r="G23">
-        <v>0.0008042472672419705</v>
+        <v>0.0008042472674683144</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1467675888071902</v>
+        <v>0.1467675888073181</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1220779585862033</v>
+        <v>0.1220779585865728</v>
       </c>
       <c r="M23">
-        <v>0.6515673846051158</v>
+        <v>0.6515673846051229</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.779017791999536</v>
+        <v>3.779017791999649</v>
       </c>
       <c r="C24">
-        <v>0.6123632761154738</v>
+        <v>0.6123632761155307</v>
       </c>
       <c r="D24">
-        <v>0.2366174292789793</v>
+        <v>0.2366174292783683</v>
       </c>
       <c r="E24">
-        <v>0.02572442819490739</v>
+        <v>0.02572442819494469</v>
       </c>
       <c r="F24">
-        <v>9.865515415675389</v>
+        <v>9.865515415675162</v>
       </c>
       <c r="G24">
-        <v>0.0008246572274131771</v>
+        <v>0.0008246572273139397</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1370579808226147</v>
+        <v>0.1370579808225827</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1103189830090017</v>
+        <v>0.1103189830090798</v>
       </c>
       <c r="M24">
-        <v>0.5571970363519654</v>
+        <v>0.5571970363519299</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.104827217617071</v>
+        <v>3.104827217617299</v>
       </c>
       <c r="C25">
-        <v>0.4841257601407847</v>
+        <v>0.4841257601407278</v>
       </c>
       <c r="D25">
-        <v>0.1921643651130296</v>
+        <v>0.192164365113257</v>
       </c>
       <c r="E25">
-        <v>0.02335082552709</v>
+        <v>0.02335082552711309</v>
       </c>
       <c r="F25">
-        <v>8.429242071496503</v>
+        <v>8.429242071496475</v>
       </c>
       <c r="G25">
-        <v>0.0008468081886069584</v>
+        <v>0.0008468081886022946</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1272557943396677</v>
+        <v>0.1272557943396322</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.09917070271076511</v>
+        <v>0.09917070271063722</v>
       </c>
       <c r="M25">
-        <v>0.4633134379797141</v>
+        <v>0.4633134379796857</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.642002945599359</v>
+        <v>2.58013846752624</v>
       </c>
       <c r="C2">
-        <v>0.3953963257254998</v>
+        <v>0.4937559916660916</v>
       </c>
       <c r="D2">
-        <v>0.1610027406357517</v>
+        <v>0.02375429658897232</v>
       </c>
       <c r="E2">
-        <v>0.02168518733024349</v>
+        <v>0.0362818266705891</v>
       </c>
       <c r="F2">
-        <v>7.428701148049839</v>
+        <v>1.150811895101498</v>
       </c>
       <c r="G2">
-        <v>0.0008634352501659362</v>
+        <v>0.9494980157449078</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.008716107875747253</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1204192478577646</v>
+        <v>0.6534469037620028</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6005435605467966</v>
       </c>
       <c r="L2">
-        <v>0.09201206591621514</v>
+        <v>0.06657741553097019</v>
       </c>
       <c r="M2">
-        <v>0.3992521550489982</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2081526525677759</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4586225502779087</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.344451557896889</v>
+        <v>2.2465427779577</v>
       </c>
       <c r="C3">
-        <v>0.3378322454807972</v>
+        <v>0.4323654563793013</v>
       </c>
       <c r="D3">
-        <v>0.1405749848142079</v>
+        <v>0.02186123268427309</v>
       </c>
       <c r="E3">
-        <v>0.02058848102578636</v>
+        <v>0.03450388006093874</v>
       </c>
       <c r="F3">
-        <v>6.777027380078835</v>
+        <v>1.102780724101635</v>
       </c>
       <c r="G3">
-        <v>0.0008749829601937033</v>
+        <v>0.9013035087261017</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01251965211412914</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1159450659322978</v>
+        <v>0.6378186174457028</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5972768166911564</v>
       </c>
       <c r="L3">
-        <v>0.08770724203520786</v>
+        <v>0.06336039584475728</v>
       </c>
       <c r="M3">
-        <v>0.358301158253056</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1856196451356027</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.400775233689572</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.168358095765598</v>
+        <v>2.042094381626328</v>
       </c>
       <c r="C4">
-        <v>0.3034841929633387</v>
+        <v>0.394709713700081</v>
       </c>
       <c r="D4">
-        <v>0.128292541010282</v>
+        <v>0.02070693992171257</v>
       </c>
       <c r="E4">
-        <v>0.01992574043483319</v>
+        <v>0.03340688442055956</v>
       </c>
       <c r="F4">
-        <v>6.387363465118199</v>
+        <v>1.074869652828774</v>
       </c>
       <c r="G4">
-        <v>0.0008822339505527696</v>
+        <v>0.8732929273262755</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01528249190988606</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1132545472736375</v>
+        <v>0.6291361514339826</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5962462460725639</v>
       </c>
       <c r="L4">
-        <v>0.08530376696002406</v>
+        <v>0.06135848802845789</v>
       </c>
       <c r="M4">
-        <v>0.3341796185333052</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.171801025130371</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3653215501473426</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.098082937703282</v>
+        <v>1.9588474974571</v>
       </c>
       <c r="C5">
-        <v>0.2897022208491933</v>
+        <v>0.3793677443026411</v>
       </c>
       <c r="D5">
-        <v>0.1233421613446666</v>
+        <v>0.02023793189855283</v>
       </c>
       <c r="E5">
-        <v>0.01965766694927229</v>
+        <v>0.03295779764365314</v>
       </c>
       <c r="F5">
-        <v>6.230866189540933</v>
+        <v>1.063871930992029</v>
       </c>
       <c r="G5">
-        <v>0.0008852322068120586</v>
+        <v>0.8622525129212022</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01651065026781856</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1121695110826231</v>
+        <v>0.625816949160324</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5960606529613379</v>
       </c>
       <c r="L5">
-        <v>0.08438067759311707</v>
+        <v>0.06053512059591437</v>
       </c>
       <c r="M5">
-        <v>0.3245816795491834</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1661715650881703</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3508853479535574</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.086498637927036</v>
+        <v>1.945027703205426</v>
       </c>
       <c r="C6">
-        <v>0.2874257630888906</v>
+        <v>0.376820222228929</v>
       </c>
       <c r="D6">
-        <v>0.1225231739271919</v>
+        <v>0.0201601184069311</v>
       </c>
       <c r="E6">
-        <v>0.01961325588850293</v>
+        <v>0.03288308312562283</v>
       </c>
       <c r="F6">
-        <v>6.205009222740586</v>
+        <v>1.062067895826225</v>
       </c>
       <c r="G6">
-        <v>0.0008857327703943374</v>
+        <v>0.8604411934773708</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01672061472474784</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1119899499763228</v>
+        <v>0.6252787208568691</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5960436833098939</v>
       </c>
       <c r="L6">
-        <v>0.08423069536006977</v>
+        <v>0.06039791899326286</v>
       </c>
       <c r="M6">
-        <v>0.3230012565117306</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1652368330503151</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3484887845320372</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.167404550244555</v>
+        <v>2.040971447693494</v>
       </c>
       <c r="C7">
-        <v>0.3032974975074296</v>
+        <v>0.3945028025619592</v>
       </c>
       <c r="D7">
-        <v>0.1282255698158821</v>
+        <v>0.02070060997202106</v>
       </c>
       <c r="E7">
-        <v>0.01992211784985454</v>
+        <v>0.03340083710041064</v>
       </c>
       <c r="F7">
-        <v>6.385244022914605</v>
+        <v>1.074719837352191</v>
       </c>
       <c r="G7">
-        <v>0.0008822742064435349</v>
+        <v>0.8731425477481736</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01529864786490553</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1132398716374929</v>
+        <v>0.6290905146475012</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.596242808098836</v>
       </c>
       <c r="L7">
-        <v>0.08529109460371842</v>
+        <v>0.06134741559352186</v>
       </c>
       <c r="M7">
-        <v>0.3340492704868225</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1717251003839451</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3651268182305074</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.537924372733073</v>
+        <v>2.465017978378967</v>
       </c>
       <c r="C8">
-        <v>0.3753188234743732</v>
+        <v>0.4725764750550638</v>
       </c>
       <c r="D8">
-        <v>0.1538984856963026</v>
+        <v>0.0230994900648902</v>
       </c>
       <c r="E8">
-        <v>0.02130440171011561</v>
+        <v>0.03566945512391506</v>
       </c>
       <c r="F8">
-        <v>7.201617452917532</v>
+        <v>1.133909721881039</v>
       </c>
       <c r="G8">
-        <v>0.0008673854715218051</v>
+        <v>0.9325379152443389</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.00993564429005124</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1188629679834499</v>
+        <v>0.6478620881009789</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5992080814158314</v>
       </c>
       <c r="L8">
-        <v>0.0904755109324995</v>
+        <v>0.06547317558246668</v>
       </c>
       <c r="M8">
-        <v>0.3849039080003109</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2003782627417294</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.438660322242356</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.325992412965434</v>
+        <v>3.301003113436764</v>
       </c>
       <c r="C9">
-        <v>0.5262918606976541</v>
+        <v>0.6263088682848377</v>
       </c>
       <c r="D9">
-        <v>0.2068519988054334</v>
+        <v>0.0278995346143347</v>
       </c>
       <c r="E9">
-        <v>0.02413476369567658</v>
+        <v>0.04011028228818803</v>
       </c>
       <c r="F9">
-        <v>8.902846214236746</v>
+        <v>1.263530949543366</v>
       </c>
       <c r="G9">
-        <v>0.0008393093415177961</v>
+        <v>1.062680274650006</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003057292343413232</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1304868265915005</v>
+        <v>0.6924328021999457</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6132780615870956</v>
       </c>
       <c r="L9">
-        <v>0.1027468014662674</v>
+        <v>0.07339451850280376</v>
       </c>
       <c r="M9">
-        <v>0.4940478804599024</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2568206720469561</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.583614384631268</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.957190659943478</v>
+        <v>3.923002122816513</v>
       </c>
       <c r="C10">
-        <v>0.6461383745639182</v>
+        <v>0.7439321369081426</v>
       </c>
       <c r="D10">
-        <v>0.2482235951780183</v>
+        <v>0.031296106510041</v>
       </c>
       <c r="E10">
-        <v>0.02634530481015585</v>
+        <v>0.04324692421764398</v>
       </c>
       <c r="F10">
-        <v>10.24170995456845</v>
+        <v>1.344992132955554</v>
       </c>
       <c r="G10">
-        <v>0.0008191176449315869</v>
+        <v>1.146332729406538</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0008337050763622678</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1396298883073435</v>
+        <v>0.7196106387500691</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6169238180352608</v>
       </c>
       <c r="L10">
-        <v>0.1133750676650322</v>
+        <v>0.07987207344913116</v>
       </c>
       <c r="M10">
-        <v>0.5820944929433125</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2908203260906248</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6864626500848843</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.259681587268972</v>
+        <v>4.233726411367059</v>
       </c>
       <c r="C11">
-        <v>0.7034182732951706</v>
+        <v>0.8322060592980165</v>
       </c>
       <c r="D11">
-        <v>0.2678167474787045</v>
+        <v>0.03086133945376801</v>
       </c>
       <c r="E11">
-        <v>0.02739556639175511</v>
+        <v>0.04532329842095351</v>
       </c>
       <c r="F11">
-        <v>10.87760648273246</v>
+        <v>1.186393467378608</v>
       </c>
       <c r="G11">
-        <v>0.0008099601127553188</v>
+        <v>1.002267777472511</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01919818437529841</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1439853980906705</v>
+        <v>0.6401705925501631</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5175732001803368</v>
       </c>
       <c r="L11">
-        <v>0.1186501392905228</v>
+        <v>0.0948455863784865</v>
       </c>
       <c r="M11">
-        <v>0.6244317388913387</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2420878007527421</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6942342305519631</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.376841091719143</v>
+        <v>4.365318504999777</v>
       </c>
       <c r="C12">
-        <v>0.7255894891856087</v>
+        <v>0.8838597494393525</v>
       </c>
       <c r="D12">
-        <v>0.2753711463238773</v>
+        <v>0.02981792246799841</v>
       </c>
       <c r="E12">
-        <v>0.02780136950035583</v>
+        <v>0.04928954504143057</v>
       </c>
       <c r="F12">
-        <v>11.12301664071731</v>
+        <v>1.04248005508002</v>
       </c>
       <c r="G12">
-        <v>0.0008064897259537058</v>
+        <v>0.8699203384342837</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05788532408142544</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1456695651046687</v>
+        <v>0.5705113216558004</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4401803097499624</v>
       </c>
       <c r="L12">
-        <v>0.1207200907395745</v>
+        <v>0.1142164244592863</v>
       </c>
       <c r="M12">
-        <v>0.6408506247091168</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1984445967171951</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.678475686417535</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.351485267806027</v>
+        <v>4.365154017553891</v>
       </c>
       <c r="C13">
-        <v>0.7207916508174321</v>
+        <v>0.909680821956897</v>
       </c>
       <c r="D13">
-        <v>0.2737377489666102</v>
+        <v>0.02823700084105063</v>
       </c>
       <c r="E13">
-        <v>0.02771358255942413</v>
+        <v>0.05481683126357595</v>
       </c>
       <c r="F13">
-        <v>11.06994479769054</v>
+        <v>0.9013732784449076</v>
       </c>
       <c r="G13">
-        <v>0.0008072373703982909</v>
+        <v>0.7386659671668951</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1138223292290235</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1453051824092064</v>
+        <v>0.5041258928744412</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3747667954492115</v>
       </c>
       <c r="L13">
-        <v>0.1202709074198793</v>
+        <v>0.1376976499786196</v>
       </c>
       <c r="M13">
-        <v>0.6372962865798328</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1565093177738319</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6438360450366076</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.269265430504504</v>
+        <v>4.305389800137561</v>
       </c>
       <c r="C14">
-        <v>0.7052321477364387</v>
+        <v>0.9160540643090656</v>
       </c>
       <c r="D14">
-        <v>0.2684353980960026</v>
+        <v>0.02690479822491909</v>
       </c>
       <c r="E14">
-        <v>0.02742877916432374</v>
+        <v>0.05969988086699018</v>
       </c>
       <c r="F14">
-        <v>10.89769937405407</v>
+        <v>0.8057192376327151</v>
       </c>
       <c r="G14">
-        <v>0.0008096746963601542</v>
+        <v>0.6490459123990036</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1634080489304353</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1441232153694685</v>
+        <v>0.4599482703925588</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.335637331184806</v>
       </c>
       <c r="L14">
-        <v>0.1188189266104516</v>
+        <v>0.1567927062413048</v>
       </c>
       <c r="M14">
-        <v>0.6257744101566587</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1288716728111723</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6112503961763736</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.219256900105904</v>
+        <v>4.262556904325379</v>
       </c>
       <c r="C15">
-        <v>0.6957668271893738</v>
+        <v>0.9117483923446343</v>
       </c>
       <c r="D15">
-        <v>0.2652058975239413</v>
+        <v>0.02646336663334914</v>
       </c>
       <c r="E15">
-        <v>0.02725543769555827</v>
+        <v>0.06082294394148668</v>
       </c>
       <c r="F15">
-        <v>10.79281889217015</v>
+        <v>0.7822370110000421</v>
       </c>
       <c r="G15">
-        <v>0.0008111670710613217</v>
+        <v>0.6266834903674265</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1760485203072193</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1434039786487382</v>
+        <v>0.4495340174804738</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3277351012669136</v>
       </c>
       <c r="L15">
-        <v>0.1179392720661596</v>
+        <v>0.1611774879384811</v>
       </c>
       <c r="M15">
-        <v>0.6187691902280363</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1219769155054209</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5994356922591706</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.937764163496638</v>
+        <v>3.992461545811977</v>
       </c>
       <c r="C16">
-        <v>0.6424573592802858</v>
+        <v>0.8543294648557662</v>
       </c>
       <c r="D16">
-        <v>0.2469606299489584</v>
+        <v>0.02533306133185498</v>
       </c>
       <c r="E16">
-        <v>0.02627770212007974</v>
+        <v>0.05807827755917572</v>
       </c>
       <c r="F16">
-        <v>10.20075402050284</v>
+        <v>0.7767892361050386</v>
       </c>
       <c r="G16">
-        <v>0.0008197161290792113</v>
+        <v>0.6179810620056259</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.164152538484089</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1393497335656981</v>
+        <v>0.4513472705505848</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3389571325880638</v>
       </c>
       <c r="L16">
-        <v>0.1130399292722757</v>
+        <v>0.1526371999124976</v>
       </c>
       <c r="M16">
-        <v>0.5793783688070491</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1172748085705493</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.563100941433639</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.769276897449231</v>
+        <v>3.817821867238308</v>
       </c>
       <c r="C17">
-        <v>0.6105157592637056</v>
+        <v>0.8071235249866788</v>
       </c>
       <c r="D17">
-        <v>0.2359813980504697</v>
+        <v>0.02516836926077559</v>
       </c>
       <c r="E17">
-        <v>0.02569042539375666</v>
+        <v>0.0531893696884076</v>
       </c>
       <c r="F17">
-        <v>9.844911390792078</v>
+        <v>0.8227404840282802</v>
       </c>
       <c r="G17">
-        <v>0.000824963440138049</v>
+        <v>0.6583111730547699</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1269609146845596</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1369172033699222</v>
+        <v>0.4759949957319094</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3679116978704648</v>
       </c>
       <c r="L17">
-        <v>0.1101530792314307</v>
+        <v>0.1354583575460353</v>
       </c>
       <c r="M17">
-        <v>0.555836788305335</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1276632460526912</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5524575110817409</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.673784868630207</v>
+        <v>3.704979852960832</v>
       </c>
       <c r="C18">
-        <v>0.5923978899706981</v>
+        <v>0.7639676415362828</v>
       </c>
       <c r="D18">
-        <v>0.229737558057451</v>
+        <v>0.02583655087465786</v>
       </c>
       <c r="E18">
-        <v>0.02535672788181387</v>
+        <v>0.04724575874509185</v>
       </c>
       <c r="F18">
-        <v>9.642714881491258</v>
+        <v>0.9221063969149981</v>
       </c>
       <c r="G18">
-        <v>0.0008279846239256481</v>
+        <v>0.7491765929225522</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07434299651472287</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1355360946167181</v>
+        <v>0.5248220868631392</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4191126687030184</v>
       </c>
       <c r="L18">
-        <v>0.1085334464726486</v>
+        <v>0.112640459608194</v>
       </c>
       <c r="M18">
-        <v>0.5425072911749851</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1547114990283092</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.56252167658986</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.641685133989199</v>
+        <v>3.650131913862651</v>
       </c>
       <c r="C19">
-        <v>0.5863048253668808</v>
+        <v>0.7281124877761727</v>
       </c>
       <c r="D19">
-        <v>0.2276350572610681</v>
+        <v>0.02718062480401784</v>
       </c>
       <c r="E19">
-        <v>0.02524440006358031</v>
+        <v>0.04284653654149562</v>
       </c>
       <c r="F19">
-        <v>9.574658797273884</v>
+        <v>1.064379071476964</v>
       </c>
       <c r="G19">
-        <v>0.0008290082562072261</v>
+        <v>0.8809528981555275</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02880050766795961</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1350713868070841</v>
+        <v>0.5927356920813338</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4905139092097173</v>
       </c>
       <c r="L19">
-        <v>0.1079918233560733</v>
+        <v>0.09233420172524021</v>
       </c>
       <c r="M19">
-        <v>0.5380287788017526</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1971975571996296</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5885806900497883</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.787063251257621</v>
+        <v>3.759388814205181</v>
       </c>
       <c r="C20">
-        <v>0.6138891418478067</v>
+        <v>0.7131126645830079</v>
       </c>
       <c r="D20">
-        <v>0.2371426357414492</v>
+        <v>0.03038474557722992</v>
       </c>
       <c r="E20">
-        <v>0.02575250777941118</v>
+        <v>0.04240608098795851</v>
       </c>
       <c r="F20">
-        <v>9.882530280799841</v>
+        <v>1.321900994340069</v>
       </c>
       <c r="G20">
-        <v>0.0008244045817171005</v>
+        <v>1.122705482360715</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001222978981108458</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1371742413746269</v>
+        <v>0.7116060988824131</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.615007038493502</v>
       </c>
       <c r="L20">
-        <v>0.1104561051071329</v>
+        <v>0.07818619791986059</v>
       </c>
       <c r="M20">
-        <v>0.5583206027221976</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2815483545925019</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6592120686851075</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.293340895116955</v>
+        <v>4.234303884669487</v>
       </c>
       <c r="C21">
-        <v>0.7097885659683243</v>
+        <v>0.797945274142478</v>
       </c>
       <c r="D21">
-        <v>0.2699889561697972</v>
+        <v>0.03340746490988167</v>
       </c>
       <c r="E21">
-        <v>0.02751219829484786</v>
+        <v>0.04511567644783054</v>
       </c>
       <c r="F21">
-        <v>10.94816029351614</v>
+        <v>1.424347609150914</v>
       </c>
       <c r="G21">
-        <v>0.0008089589246481573</v>
+        <v>1.224538434645723</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.754294543294016E-05</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.144469383861253</v>
+        <v>0.7515401261121895</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6392019434099936</v>
       </c>
       <c r="L21">
-        <v>0.119243363176075</v>
+        <v>0.08209867724682418</v>
       </c>
       <c r="M21">
-        <v>0.629147654275549</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3198572480339266</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7454144323453775</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.639695100557674</v>
+        <v>4.547820158037609</v>
       </c>
       <c r="C22">
-        <v>0.7753161296721203</v>
+        <v>0.855646888370444</v>
       </c>
       <c r="D22">
-        <v>0.2922564080659953</v>
+        <v>0.03529907764379914</v>
       </c>
       <c r="E22">
-        <v>0.02871044963348179</v>
+        <v>0.04682217178250514</v>
       </c>
       <c r="F22">
-        <v>11.67192887989529</v>
+        <v>1.481610416367232</v>
       </c>
       <c r="G22">
-        <v>0.0007988450254373289</v>
+        <v>1.282299871284948</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.96551081576213E-05</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1494441835212648</v>
+        <v>0.7732654823883252</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6499623046852818</v>
       </c>
       <c r="L22">
-        <v>0.1254137949897967</v>
+        <v>0.08501658483228347</v>
       </c>
       <c r="M22">
-        <v>0.6777261491884161</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3410505297154458</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7997583324536777</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.453270145959266</v>
+        <v>4.380325365456713</v>
       </c>
       <c r="C23">
-        <v>0.7400500730282999</v>
+        <v>0.8248161516190748</v>
       </c>
       <c r="D23">
-        <v>0.2802896303310689</v>
+        <v>0.03428573937438628</v>
       </c>
       <c r="E23">
-        <v>0.02806587012242634</v>
+        <v>0.04590858188339042</v>
       </c>
       <c r="F23">
-        <v>11.28285715330406</v>
+        <v>1.450828311231191</v>
       </c>
       <c r="G23">
-        <v>0.0008042472674683144</v>
+        <v>1.251241090274931</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.042626807170379E-06</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1467675888073181</v>
+        <v>0.7615496337604384</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6440936136893711</v>
       </c>
       <c r="L23">
-        <v>0.1220779585865728</v>
+        <v>0.08345744545700029</v>
       </c>
       <c r="M23">
-        <v>0.6515673846051229</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3297267176222363</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7707259011804126</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.779017791999649</v>
+        <v>3.749315903685783</v>
       </c>
       <c r="C24">
-        <v>0.6123632761155307</v>
+        <v>0.7087371258241433</v>
       </c>
       <c r="D24">
-        <v>0.2366174292783683</v>
+        <v>0.03052338834391222</v>
       </c>
       <c r="E24">
-        <v>0.02572442819494469</v>
+        <v>0.04250305969648294</v>
       </c>
       <c r="F24">
-        <v>9.865515415675162</v>
+        <v>1.338881678095262</v>
       </c>
       <c r="G24">
-        <v>0.0008246572273139397</v>
+        <v>1.138455475545101</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.00106550232168412</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1370579808225827</v>
+        <v>0.7197280766154392</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6245284092368237</v>
       </c>
       <c r="L24">
-        <v>0.1103189830090798</v>
+        <v>0.07758348598699349</v>
       </c>
       <c r="M24">
-        <v>0.5571970363519299</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2870924166193447</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6613395876563004</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.104827217617299</v>
+        <v>3.074158593059735</v>
       </c>
       <c r="C25">
-        <v>0.4841257601407278</v>
+        <v>0.5846035016083704</v>
       </c>
       <c r="D25">
-        <v>0.192164365113257</v>
+        <v>0.02658597439654997</v>
       </c>
       <c r="E25">
-        <v>0.02335082552711309</v>
+        <v>0.03890469684822362</v>
       </c>
       <c r="F25">
-        <v>8.429242071496475</v>
+        <v>1.226865371367111</v>
       </c>
       <c r="G25">
-        <v>0.0008468081886022946</v>
+        <v>1.02584463428289</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.004492506685208841</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1272557943396322</v>
+        <v>0.6794690778335166</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6085122098172491</v>
       </c>
       <c r="L25">
-        <v>0.09917070271063722</v>
+        <v>0.0712634780103123</v>
       </c>
       <c r="M25">
-        <v>0.4633134379796857</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2415062516342488</v>
       </c>
       <c r="O25">
+        <v>0.5442831166422764</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.58013846752624</v>
+        <v>2.582280680668816</v>
       </c>
       <c r="C2">
-        <v>0.4937559916660916</v>
+        <v>0.5431957274452941</v>
       </c>
       <c r="D2">
-        <v>0.02375429658897232</v>
+        <v>0.02848326146881419</v>
       </c>
       <c r="E2">
-        <v>0.0362818266705891</v>
+        <v>0.03642483633633842</v>
       </c>
       <c r="F2">
-        <v>1.150811895101498</v>
+        <v>1.007270763404762</v>
       </c>
       <c r="G2">
-        <v>0.9494980157449078</v>
+        <v>0.7890587157599356</v>
       </c>
       <c r="H2">
-        <v>0.008716107875747253</v>
+        <v>0.006757007705269547</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6534469037620028</v>
+        <v>0.5977884869361532</v>
       </c>
       <c r="K2">
-        <v>0.6005435605467966</v>
+        <v>0.4928859141691149</v>
       </c>
       <c r="L2">
-        <v>0.06657741553097019</v>
+        <v>0.2202984141686883</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1528853826346293</v>
       </c>
       <c r="N2">
-        <v>0.2081526525677759</v>
+        <v>0.06616545471016977</v>
       </c>
       <c r="O2">
-        <v>0.4586225502779087</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2320739553613294</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4682373801099047</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.2465427779577</v>
+        <v>2.248972009226179</v>
       </c>
       <c r="C3">
-        <v>0.4323654563793013</v>
+        <v>0.4707898663746164</v>
       </c>
       <c r="D3">
-        <v>0.02186123268427309</v>
+        <v>0.02637640021005794</v>
       </c>
       <c r="E3">
-        <v>0.03450388006093874</v>
+        <v>0.03494706200787176</v>
       </c>
       <c r="F3">
-        <v>1.102780724101635</v>
+        <v>0.9733367963745394</v>
       </c>
       <c r="G3">
-        <v>0.9013035087261017</v>
+        <v>0.7586832779341393</v>
       </c>
       <c r="H3">
-        <v>0.01251965211412914</v>
+        <v>0.009749169267052452</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6378186174457028</v>
+        <v>0.5833373922288274</v>
       </c>
       <c r="K3">
-        <v>0.5972768166911564</v>
+        <v>0.4967686346954174</v>
       </c>
       <c r="L3">
-        <v>0.06336039584475728</v>
+        <v>0.2252626191121649</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1519779112178377</v>
       </c>
       <c r="N3">
-        <v>0.1856196451356027</v>
+        <v>0.06292355756401236</v>
       </c>
       <c r="O3">
-        <v>0.400775233689572</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.207586293602283</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4087014066851893</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.042094381626328</v>
+        <v>2.04434674643187</v>
       </c>
       <c r="C4">
-        <v>0.394709713700081</v>
+        <v>0.4265068264402316</v>
       </c>
       <c r="D4">
-        <v>0.02070693992171257</v>
+        <v>0.02509343481857229</v>
       </c>
       <c r="E4">
-        <v>0.03340688442055956</v>
+        <v>0.03403208416362549</v>
       </c>
       <c r="F4">
-        <v>1.074869652828774</v>
+        <v>0.9536505357102811</v>
       </c>
       <c r="G4">
-        <v>0.8732929273262755</v>
+        <v>0.7414148675275527</v>
       </c>
       <c r="H4">
-        <v>0.01528249190988606</v>
+        <v>0.01192805730385979</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6291361514339826</v>
+        <v>0.5748390841908559</v>
       </c>
       <c r="K4">
-        <v>0.5962462460725639</v>
+        <v>0.4998380572863503</v>
       </c>
       <c r="L4">
-        <v>0.06135848802845789</v>
+        <v>0.2284360154907148</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.152354190988552</v>
       </c>
       <c r="N4">
-        <v>0.171801025130371</v>
+        <v>0.06091173051725995</v>
       </c>
       <c r="O4">
-        <v>0.3653215501473426</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1925944992687576</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3721870459316605</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.9588474974571</v>
+        <v>1.960946686643069</v>
       </c>
       <c r="C5">
-        <v>0.3793677443026411</v>
+        <v>0.4084984412214965</v>
       </c>
       <c r="D5">
-        <v>0.02023793189855283</v>
+        <v>0.02457284797963055</v>
       </c>
       <c r="E5">
-        <v>0.03295779764365314</v>
+        <v>0.03365679063185037</v>
       </c>
       <c r="F5">
-        <v>1.063871930992029</v>
+        <v>0.9459013677311034</v>
       </c>
       <c r="G5">
-        <v>0.8622525129212022</v>
+        <v>0.7347043780743832</v>
       </c>
       <c r="H5">
-        <v>0.01651065026781856</v>
+        <v>0.01289782432161507</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.625816949160324</v>
+        <v>0.5714651871458187</v>
       </c>
       <c r="K5">
-        <v>0.5960606529613379</v>
+        <v>0.5012536670078234</v>
       </c>
       <c r="L5">
-        <v>0.06053512059591437</v>
+        <v>0.2297603247068523</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1527362468710187</v>
       </c>
       <c r="N5">
-        <v>0.1661715650881703</v>
+        <v>0.06008586216984568</v>
       </c>
       <c r="O5">
-        <v>0.3508853479535574</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1864941515980547</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3573135874846969</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.945027703205426</v>
+        <v>1.947096775688294</v>
       </c>
       <c r="C6">
-        <v>0.376820222228929</v>
+        <v>0.4055102327454563</v>
       </c>
       <c r="D6">
-        <v>0.0201601184069311</v>
+        <v>0.02448652725568223</v>
       </c>
       <c r="E6">
-        <v>0.03288308312562283</v>
+        <v>0.03359431191836659</v>
       </c>
       <c r="F6">
-        <v>1.062067895826225</v>
+        <v>0.944630670841704</v>
       </c>
       <c r="G6">
-        <v>0.8604411934773708</v>
+        <v>0.7336092305302202</v>
       </c>
       <c r="H6">
-        <v>0.01672061472474784</v>
+        <v>0.01306368133624047</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6252787208568691</v>
+        <v>0.5709102016640202</v>
       </c>
       <c r="K6">
-        <v>0.5960436833098939</v>
+        <v>0.5014984662084281</v>
       </c>
       <c r="L6">
-        <v>0.06039791899326286</v>
+        <v>0.2299820939641037</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1528133308066888</v>
       </c>
       <c r="N6">
-        <v>0.1652368330503151</v>
+        <v>0.05994834387028192</v>
       </c>
       <c r="O6">
-        <v>0.3484887845320372</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1854816746747829</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3548441420358373</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.040971447693494</v>
+        <v>2.043207455904962</v>
       </c>
       <c r="C7">
-        <v>0.3945028025619592</v>
+        <v>0.4255164094623467</v>
       </c>
       <c r="D7">
-        <v>0.02070060997202106</v>
+        <v>0.02518653412293403</v>
       </c>
       <c r="E7">
-        <v>0.03340083710041064</v>
+        <v>0.03402050406907278</v>
       </c>
       <c r="F7">
-        <v>1.074719837352191</v>
+        <v>0.9513608231907611</v>
       </c>
       <c r="G7">
-        <v>0.8731425477481736</v>
+        <v>0.7441708003910463</v>
       </c>
       <c r="H7">
-        <v>0.01529864786490553</v>
+        <v>0.01195300025208459</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6290905146475012</v>
+        <v>0.5680795055993713</v>
       </c>
       <c r="K7">
-        <v>0.596242808098836</v>
+        <v>0.4987644915090534</v>
       </c>
       <c r="L7">
-        <v>0.06134741559352186</v>
+        <v>0.2279577364907617</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1520350367677654</v>
       </c>
       <c r="N7">
-        <v>0.1717251003839451</v>
+        <v>0.0608824301364006</v>
       </c>
       <c r="O7">
-        <v>0.3651268182305074</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1924764887131545</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3719725793095918</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.465017978378967</v>
+        <v>2.467266875344421</v>
       </c>
       <c r="C8">
-        <v>0.4725764750550638</v>
+        <v>0.5156661985269011</v>
       </c>
       <c r="D8">
-        <v>0.0230994900648902</v>
+        <v>0.0280946670184079</v>
       </c>
       <c r="E8">
-        <v>0.03566945512391506</v>
+        <v>0.03589593391069296</v>
       </c>
       <c r="F8">
-        <v>1.133909721881039</v>
+        <v>0.9881279023302909</v>
       </c>
       <c r="G8">
-        <v>0.9325379152443389</v>
+        <v>0.7878172370486283</v>
       </c>
       <c r="H8">
-        <v>0.00993564429005124</v>
+        <v>0.007745640111206847</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6478620881009789</v>
+        <v>0.5707652014273492</v>
       </c>
       <c r="K8">
-        <v>0.5992080814158314</v>
+        <v>0.4905288480944883</v>
       </c>
       <c r="L8">
-        <v>0.06547317558246668</v>
+        <v>0.2204787457400599</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1512149104251392</v>
       </c>
       <c r="N8">
-        <v>0.2003782627417294</v>
+        <v>0.06499580636039504</v>
       </c>
       <c r="O8">
-        <v>0.438660322242356</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.22350101858882</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4476475256560235</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.301003113436764</v>
+        <v>3.30014587867754</v>
       </c>
       <c r="C9">
-        <v>0.6263088682848377</v>
+        <v>0.6968643807408057</v>
       </c>
       <c r="D9">
-        <v>0.0278995346143347</v>
+        <v>0.03353743843043588</v>
       </c>
       <c r="E9">
-        <v>0.04011028228818803</v>
+        <v>0.03956091764650577</v>
       </c>
       <c r="F9">
-        <v>1.263530949543366</v>
+        <v>1.078027834959556</v>
       </c>
       <c r="G9">
-        <v>1.062680274650006</v>
+        <v>0.8749706285824601</v>
       </c>
       <c r="H9">
-        <v>0.003057292343413232</v>
+        <v>0.002351223843327532</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6924328021999457</v>
+        <v>0.6031912415860603</v>
       </c>
       <c r="K9">
-        <v>0.6132780615870956</v>
+        <v>0.4841377652147969</v>
       </c>
       <c r="L9">
-        <v>0.07339451850280376</v>
+        <v>0.2086377921984095</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1584617244553534</v>
       </c>
       <c r="N9">
-        <v>0.2568206720469561</v>
+        <v>0.0729913065211143</v>
       </c>
       <c r="O9">
-        <v>0.583614384631268</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.284917302230383</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5966134625354229</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.923002122816513</v>
+        <v>3.917396826492336</v>
       </c>
       <c r="C10">
-        <v>0.7439321369081426</v>
+        <v>0.8293924788740696</v>
       </c>
       <c r="D10">
-        <v>0.031296106510041</v>
+        <v>0.03789772140304848</v>
       </c>
       <c r="E10">
-        <v>0.04324692421764398</v>
+        <v>0.04214411958762332</v>
       </c>
       <c r="F10">
-        <v>1.344992132955554</v>
+        <v>1.120372436502237</v>
       </c>
       <c r="G10">
-        <v>1.146332729406538</v>
+        <v>0.9480435711340789</v>
       </c>
       <c r="H10">
-        <v>0.0008337050763622678</v>
+        <v>0.0006834317936652567</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7196106387500691</v>
+        <v>0.5842445042181623</v>
       </c>
       <c r="K10">
-        <v>0.6169238180352608</v>
+        <v>0.4689756678013666</v>
       </c>
       <c r="L10">
-        <v>0.07987207344913116</v>
+        <v>0.1954316254847797</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1631146868577353</v>
       </c>
       <c r="N10">
-        <v>0.2908203260906248</v>
+        <v>0.07987034266587401</v>
       </c>
       <c r="O10">
-        <v>0.6864626500848843</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3216423158163622</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.7018103360900199</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.233726411367059</v>
+        <v>4.227269360717401</v>
       </c>
       <c r="C11">
-        <v>0.8322060592980165</v>
+        <v>0.9042679576790817</v>
       </c>
       <c r="D11">
-        <v>0.03086133945376801</v>
+        <v>0.03774389286407853</v>
       </c>
       <c r="E11">
-        <v>0.04532329842095351</v>
+        <v>0.04437772920159233</v>
       </c>
       <c r="F11">
-        <v>1.186393467378608</v>
+        <v>0.9680093715145119</v>
       </c>
       <c r="G11">
-        <v>1.002267777472511</v>
+        <v>0.8682257950253813</v>
       </c>
       <c r="H11">
-        <v>0.01919818437529841</v>
+        <v>0.01912618862175464</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6401705925501631</v>
+        <v>0.4577466641722197</v>
       </c>
       <c r="K11">
-        <v>0.5175732001803368</v>
+        <v>0.3850043912257846</v>
       </c>
       <c r="L11">
-        <v>0.0948455863784865</v>
+        <v>0.1629616197093462</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1341929494722827</v>
       </c>
       <c r="N11">
-        <v>0.2420878007527421</v>
+        <v>0.09825837421635697</v>
       </c>
       <c r="O11">
-        <v>0.6942342305519631</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2671708370853594</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7080573592100521</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.365318504999777</v>
+        <v>4.359546483261397</v>
       </c>
       <c r="C12">
-        <v>0.8838597494393525</v>
+        <v>0.9431478510486784</v>
       </c>
       <c r="D12">
-        <v>0.02981792246799841</v>
+        <v>0.0362860765559283</v>
       </c>
       <c r="E12">
-        <v>0.04928954504143057</v>
+        <v>0.04839197281493313</v>
       </c>
       <c r="F12">
-        <v>1.04248005508002</v>
+        <v>0.8452806667273052</v>
       </c>
       <c r="G12">
-        <v>0.8699203384342837</v>
+        <v>0.7771940458233075</v>
       </c>
       <c r="H12">
-        <v>0.05788532408142544</v>
+        <v>0.05782351592846169</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5705113216558004</v>
+        <v>0.3863972606605017</v>
       </c>
       <c r="K12">
-        <v>0.4401803097499624</v>
+        <v>0.3275436062978798</v>
       </c>
       <c r="L12">
-        <v>0.1142164244592863</v>
+        <v>0.1426270387884436</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1120116954310824</v>
       </c>
       <c r="N12">
-        <v>0.1984445967171951</v>
+        <v>0.1199222367366701</v>
       </c>
       <c r="O12">
-        <v>0.678475686417535</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2187170390618931</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6906129612284531</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.365154017553891</v>
+        <v>4.361470507144304</v>
       </c>
       <c r="C13">
-        <v>0.909680821956897</v>
+        <v>0.9584802401444961</v>
       </c>
       <c r="D13">
-        <v>0.02823700084105063</v>
+        <v>0.03359009757350151</v>
       </c>
       <c r="E13">
-        <v>0.05481683126357595</v>
+        <v>0.05407990010492902</v>
       </c>
       <c r="F13">
-        <v>0.9013732784449076</v>
+        <v>0.7399276324412654</v>
       </c>
       <c r="G13">
-        <v>0.7386659671668951</v>
+        <v>0.6670823401619543</v>
       </c>
       <c r="H13">
-        <v>0.1138223292290235</v>
+        <v>0.1137187289236579</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5041258928744412</v>
+        <v>0.3533088394910848</v>
       </c>
       <c r="K13">
-        <v>0.3747667954492115</v>
+        <v>0.2865141409840746</v>
       </c>
       <c r="L13">
-        <v>0.1376976499786196</v>
+        <v>0.1292325118769586</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.09431929098801461</v>
       </c>
       <c r="N13">
-        <v>0.1565093177738319</v>
+        <v>0.1447751005874309</v>
       </c>
       <c r="O13">
-        <v>0.6438360450366076</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1724998327430143</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.654123205389844</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.305389800137561</v>
+        <v>4.303727535472433</v>
       </c>
       <c r="C14">
-        <v>0.9160540643090656</v>
+        <v>0.9585242895364843</v>
       </c>
       <c r="D14">
-        <v>0.02690479822491909</v>
+        <v>0.03126989491347132</v>
       </c>
       <c r="E14">
-        <v>0.05969988086699018</v>
+        <v>0.05918011906408083</v>
       </c>
       <c r="F14">
-        <v>0.8057192376327151</v>
+        <v>0.6737425732228886</v>
       </c>
       <c r="G14">
-        <v>0.6490459123990036</v>
+        <v>0.5846393226206459</v>
       </c>
       <c r="H14">
-        <v>0.1634080489304353</v>
+        <v>0.1632393647043386</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4599482703925588</v>
+        <v>0.3435448520376028</v>
       </c>
       <c r="K14">
-        <v>0.335637331184806</v>
+        <v>0.2649005624257335</v>
       </c>
       <c r="L14">
-        <v>0.1567927062413048</v>
+        <v>0.1225553543470461</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.08417814997624262</v>
       </c>
       <c r="N14">
-        <v>0.1288716728111723</v>
+        <v>0.1642443554138495</v>
       </c>
       <c r="O14">
-        <v>0.6112503961763736</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1421830557620112</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6201663775678767</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.262556904325379</v>
+        <v>4.261638499159062</v>
       </c>
       <c r="C15">
-        <v>0.9117483923446343</v>
+        <v>0.9531878863362806</v>
       </c>
       <c r="D15">
-        <v>0.02646336663334914</v>
+        <v>0.03049896935351626</v>
       </c>
       <c r="E15">
-        <v>0.06082294394148668</v>
+        <v>0.06042669857529681</v>
       </c>
       <c r="F15">
-        <v>0.7822370110000421</v>
+        <v>0.6596827010944395</v>
       </c>
       <c r="G15">
-        <v>0.6266834903674265</v>
+        <v>0.5614318718619842</v>
       </c>
       <c r="H15">
-        <v>0.1760485203072193</v>
+        <v>0.1758432120743691</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4495340174804738</v>
+        <v>0.3464320962589369</v>
       </c>
       <c r="K15">
-        <v>0.3277351012669136</v>
+        <v>0.2618055207533914</v>
       </c>
       <c r="L15">
-        <v>0.1611774879384811</v>
+        <v>0.1217497668522132</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.08233568636062571</v>
       </c>
       <c r="N15">
-        <v>0.1219769155054209</v>
+        <v>0.1685727403760282</v>
       </c>
       <c r="O15">
-        <v>0.5994356922591706</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1346851448052533</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6079761702007573</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.992461545811977</v>
+        <v>3.993747583901722</v>
       </c>
       <c r="C16">
-        <v>0.8543294648557662</v>
+        <v>0.8996472114768892</v>
       </c>
       <c r="D16">
-        <v>0.02533306133185498</v>
+        <v>0.02858215731244584</v>
       </c>
       <c r="E16">
-        <v>0.05807827755917572</v>
+        <v>0.05828835990613435</v>
       </c>
       <c r="F16">
-        <v>0.7767892361050386</v>
+        <v>0.6754452846113708</v>
       </c>
       <c r="G16">
-        <v>0.6179810620056259</v>
+        <v>0.5324996603740857</v>
       </c>
       <c r="H16">
-        <v>0.164152538484089</v>
+        <v>0.1637160487282188</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4513472705505848</v>
+        <v>0.3944187712507272</v>
       </c>
       <c r="K16">
-        <v>0.3389571325880638</v>
+        <v>0.2796187412526336</v>
       </c>
       <c r="L16">
-        <v>0.1526371999124976</v>
+        <v>0.1288866923783232</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0869560881480993</v>
       </c>
       <c r="N16">
-        <v>0.1172748085705493</v>
+        <v>0.159199007942803</v>
       </c>
       <c r="O16">
-        <v>0.563100941433639</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.130113662834475</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5712259839747773</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.817821867238308</v>
+        <v>3.819591105232007</v>
       </c>
       <c r="C17">
-        <v>0.8071235249866788</v>
+        <v>0.8572656281858997</v>
       </c>
       <c r="D17">
-        <v>0.02516836926077559</v>
+        <v>0.02837125564974841</v>
       </c>
       <c r="E17">
-        <v>0.0531893696884076</v>
+        <v>0.05361074709801272</v>
       </c>
       <c r="F17">
-        <v>0.8227404840282802</v>
+        <v>0.721415374422925</v>
       </c>
       <c r="G17">
-        <v>0.6583111730547699</v>
+        <v>0.555798430794809</v>
       </c>
       <c r="H17">
-        <v>0.1269609146845596</v>
+        <v>0.126367238762839</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4759949957319094</v>
+        <v>0.4349003390030504</v>
       </c>
       <c r="K17">
-        <v>0.3679116978704648</v>
+        <v>0.3048627556144829</v>
       </c>
       <c r="L17">
-        <v>0.1354583575460353</v>
+        <v>0.1384845996058832</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.09548684953892383</v>
       </c>
       <c r="N17">
-        <v>0.1276632460526912</v>
+        <v>0.1413627219505003</v>
       </c>
       <c r="O17">
-        <v>0.5524575110817409</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.141928238058199</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.560955412396396</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.704979852960832</v>
+        <v>3.706105137121426</v>
       </c>
       <c r="C18">
-        <v>0.7639676415362828</v>
+        <v>0.8218873076077671</v>
       </c>
       <c r="D18">
-        <v>0.02583655087465786</v>
+        <v>0.02943136295327875</v>
       </c>
       <c r="E18">
-        <v>0.04724575874509185</v>
+        <v>0.0475901730158288</v>
       </c>
       <c r="F18">
-        <v>0.9221063969149981</v>
+        <v>0.8053354827742965</v>
       </c>
       <c r="G18">
-        <v>0.7491765929225522</v>
+        <v>0.6233597955774997</v>
       </c>
       <c r="H18">
-        <v>0.07434299651472287</v>
+        <v>0.07369680199511208</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5248220868631392</v>
+        <v>0.48286389019853</v>
       </c>
       <c r="K18">
-        <v>0.4191126687030184</v>
+        <v>0.3434367394862825</v>
       </c>
       <c r="L18">
-        <v>0.112640459608194</v>
+        <v>0.152927780257393</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1096196135336562</v>
       </c>
       <c r="N18">
-        <v>0.1547114990283092</v>
+        <v>0.1176361669655108</v>
       </c>
       <c r="O18">
-        <v>0.56252167658986</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1719747479028584</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5721848529451421</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.650131913862651</v>
+        <v>3.649840655888966</v>
       </c>
       <c r="C19">
-        <v>0.7281124877761727</v>
+        <v>0.7959547084253984</v>
       </c>
       <c r="D19">
-        <v>0.02718062480401784</v>
+        <v>0.03147686564143726</v>
       </c>
       <c r="E19">
-        <v>0.04284653654149562</v>
+        <v>0.0428515550409454</v>
       </c>
       <c r="F19">
-        <v>1.064379071476964</v>
+        <v>0.9201867073034293</v>
       </c>
       <c r="G19">
-        <v>0.8809528981555275</v>
+        <v>0.7244391977288132</v>
       </c>
       <c r="H19">
-        <v>0.02880050766795961</v>
+        <v>0.02822074938346475</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5927356920813338</v>
+        <v>0.539024445059141</v>
       </c>
       <c r="K19">
-        <v>0.4905139092097173</v>
+        <v>0.3944699155802418</v>
       </c>
       <c r="L19">
-        <v>0.09233420172524021</v>
+        <v>0.171820585258029</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1289873655027485</v>
       </c>
       <c r="N19">
-        <v>0.1971975571996296</v>
+        <v>0.09577228358392276</v>
       </c>
       <c r="O19">
-        <v>0.5885806900497883</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.218928903093321</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6000085780729663</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.759388814205181</v>
+        <v>3.755374359810958</v>
       </c>
       <c r="C20">
-        <v>0.7131126645830079</v>
+        <v>0.7974219397623301</v>
       </c>
       <c r="D20">
-        <v>0.03038474557722992</v>
+        <v>0.03634142800009244</v>
       </c>
       <c r="E20">
-        <v>0.04240608098795851</v>
+        <v>0.04147808558484434</v>
       </c>
       <c r="F20">
-        <v>1.321900994340069</v>
+        <v>1.115540051550454</v>
       </c>
       <c r="G20">
-        <v>1.122705482360715</v>
+        <v>0.9169581607191049</v>
       </c>
       <c r="H20">
-        <v>0.001222978981108458</v>
+        <v>0.0009575968248718425</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7116060988824131</v>
+        <v>0.6111643960298352</v>
       </c>
       <c r="K20">
-        <v>0.615007038493502</v>
+        <v>0.475881059589625</v>
       </c>
       <c r="L20">
-        <v>0.07818619791986059</v>
+        <v>0.1999509760875675</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1628589400517377</v>
       </c>
       <c r="N20">
-        <v>0.2815483545925019</v>
+        <v>0.07814004758130544</v>
       </c>
       <c r="O20">
-        <v>0.6592120686851075</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3117505675869126</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6740190773712698</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.234303884669487</v>
+        <v>4.22448486452754</v>
       </c>
       <c r="C21">
-        <v>0.797945274142478</v>
+        <v>0.8807553767572358</v>
       </c>
       <c r="D21">
-        <v>0.03340746490988167</v>
+        <v>0.04248745694324896</v>
       </c>
       <c r="E21">
-        <v>0.04511567644783054</v>
+        <v>0.04354099467848582</v>
       </c>
       <c r="F21">
-        <v>1.424347609150914</v>
+        <v>1.13874003563366</v>
       </c>
       <c r="G21">
-        <v>1.224538434645723</v>
+        <v>1.060343803669795</v>
       </c>
       <c r="H21">
-        <v>7.754294543294016E-05</v>
+        <v>6.76630240767917E-05</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7515401261121895</v>
+        <v>0.4993278935450434</v>
       </c>
       <c r="K21">
-        <v>0.6392019434099936</v>
+        <v>0.4599543853445809</v>
       </c>
       <c r="L21">
-        <v>0.08209867724682418</v>
+        <v>0.188332241626771</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1655600965297275</v>
       </c>
       <c r="N21">
-        <v>0.3198572480339266</v>
+        <v>0.08146799887628831</v>
       </c>
       <c r="O21">
-        <v>0.7454144323453775</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3527081842991748</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7619684518989445</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.547820158037609</v>
+        <v>4.533556582656274</v>
       </c>
       <c r="C22">
-        <v>0.855646888370444</v>
+        <v>0.9354385210570513</v>
       </c>
       <c r="D22">
-        <v>0.03529907764379914</v>
+        <v>0.04669753355372563</v>
       </c>
       <c r="E22">
-        <v>0.04682217178250514</v>
+        <v>0.04488019868272219</v>
       </c>
       <c r="F22">
-        <v>1.481610416367232</v>
+        <v>1.142886997043661</v>
       </c>
       <c r="G22">
-        <v>1.282299871284948</v>
+        <v>1.15528997320709</v>
       </c>
       <c r="H22">
-        <v>3.96551081576213E-05</v>
+        <v>2.055582379978382E-05</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7732654823883252</v>
+        <v>0.4257679147415985</v>
       </c>
       <c r="K22">
-        <v>0.6499623046852818</v>
+        <v>0.4448171663627249</v>
       </c>
       <c r="L22">
-        <v>0.08501658483228347</v>
+        <v>0.1792678839977064</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1657401908124889</v>
       </c>
       <c r="N22">
-        <v>0.3410505297154458</v>
+        <v>0.08422253191094597</v>
       </c>
       <c r="O22">
-        <v>0.7997583324536777</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3751650997184726</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.817195329745644</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.380325365456713</v>
+        <v>4.368605531827995</v>
       </c>
       <c r="C23">
-        <v>0.8248161516190748</v>
+        <v>0.9083455195453496</v>
       </c>
       <c r="D23">
-        <v>0.03428573937438628</v>
+        <v>0.04410713081899331</v>
       </c>
       <c r="E23">
-        <v>0.04590858188339042</v>
+        <v>0.04416810371999524</v>
       </c>
       <c r="F23">
-        <v>1.450828311231191</v>
+        <v>1.14612117053251</v>
       </c>
       <c r="G23">
-        <v>1.251241090274931</v>
+        <v>1.095702398886417</v>
       </c>
       <c r="H23">
-        <v>3.042626807170379E-06</v>
+        <v>4.683740052024987E-06</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7615496337604384</v>
+        <v>0.4774428871382099</v>
       </c>
       <c r="K23">
-        <v>0.6440936136893711</v>
+        <v>0.4554031781429444</v>
       </c>
       <c r="L23">
-        <v>0.08345744545700029</v>
+        <v>0.1849292697311213</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1666612883934206</v>
       </c>
       <c r="N23">
-        <v>0.3297267176222363</v>
+        <v>0.0827786448284904</v>
       </c>
       <c r="O23">
-        <v>0.7707259011804126</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3632646271140629</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7877536173883541</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.749315903685783</v>
+        <v>3.745179152661763</v>
       </c>
       <c r="C24">
-        <v>0.7087371258241433</v>
+        <v>0.7939433178336515</v>
       </c>
       <c r="D24">
-        <v>0.03052338834391222</v>
+        <v>0.03655477644588245</v>
       </c>
       <c r="E24">
-        <v>0.04250305969648294</v>
+        <v>0.04151791234527374</v>
       </c>
       <c r="F24">
-        <v>1.338881678095262</v>
+        <v>1.129420551819663</v>
       </c>
       <c r="G24">
-        <v>1.138455475545101</v>
+        <v>0.9285647357869919</v>
       </c>
       <c r="H24">
-        <v>0.00106550232168412</v>
+        <v>0.0008059412880767614</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7197280766154392</v>
+        <v>0.6186251399789171</v>
       </c>
       <c r="K24">
-        <v>0.6245284092368237</v>
+        <v>0.4828375101600031</v>
       </c>
       <c r="L24">
-        <v>0.07758348598699349</v>
+        <v>0.2025687614199256</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1654394971577702</v>
       </c>
       <c r="N24">
-        <v>0.2870924166193447</v>
+        <v>0.07721720311235458</v>
       </c>
       <c r="O24">
-        <v>0.6613395876563004</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.317879846493625</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6763286984896624</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.074158593059735</v>
+        <v>3.074579402272832</v>
       </c>
       <c r="C25">
-        <v>0.5846035016083704</v>
+        <v>0.6487180196428142</v>
       </c>
       <c r="D25">
-        <v>0.02658597439654997</v>
+        <v>0.03190041635613383</v>
       </c>
       <c r="E25">
-        <v>0.03890469684822362</v>
+        <v>0.03857799362476222</v>
       </c>
       <c r="F25">
-        <v>1.226865371367111</v>
+        <v>1.055603224981141</v>
       </c>
       <c r="G25">
-        <v>1.02584463428289</v>
+        <v>0.8458355722596167</v>
       </c>
       <c r="H25">
-        <v>0.004492506685208841</v>
+        <v>0.003464183793694953</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6794690778335166</v>
+        <v>0.603333450237912</v>
       </c>
       <c r="K25">
-        <v>0.6085122098172491</v>
+        <v>0.4866824784533854</v>
       </c>
       <c r="L25">
-        <v>0.0712634780103123</v>
+        <v>0.2123092454944349</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1561749279493192</v>
       </c>
       <c r="N25">
-        <v>0.2415062516342488</v>
+        <v>0.07086005210883251</v>
       </c>
       <c r="O25">
-        <v>0.5442831166422764</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2682910195588022</v>
       </c>
       <c r="Q25">
+        <v>0.5562536827652806</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
